--- a/TB 2018-2021 Data (1).xlsx
+++ b/TB 2018-2021 Data (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CA7343\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9462324-7232-4D95-A8A8-4B67F992F63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1562D8C-7C41-48F5-9DA7-AED1E2524C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8A99E319-6B00-4132-B616-407A43D237D4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="156">
   <si>
     <t>Area</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Central Luzon</t>
   </si>
   <si>
-    <t>CALABARZON</t>
-  </si>
-  <si>
-    <t>MIMAROPA</t>
-  </si>
-  <si>
     <t>Bicol Region</t>
   </si>
   <si>
@@ -82,15 +76,6 @@
     <t>Davao Region</t>
   </si>
   <si>
-    <t>SOCCSKSARGEN</t>
-  </si>
-  <si>
-    <t>CARAGA</t>
-  </si>
-  <si>
-    <t>BARMM</t>
-  </si>
-  <si>
     <t>Caloocan City</t>
   </si>
   <si>
@@ -442,7 +427,73 @@
     <t>Tawi-Tawi</t>
   </si>
   <si>
-    <t>NAME_1</t>
+    <t>ADM1ATIEN</t>
+  </si>
+  <si>
+    <t>Region I</t>
+  </si>
+  <si>
+    <t>Region II</t>
+  </si>
+  <si>
+    <t>Region III</t>
+  </si>
+  <si>
+    <t>Region IV-A</t>
+  </si>
+  <si>
+    <t>Region IV-B</t>
+  </si>
+  <si>
+    <t>Region V</t>
+  </si>
+  <si>
+    <t>Region VI</t>
+  </si>
+  <si>
+    <t>Region VII</t>
+  </si>
+  <si>
+    <t>Region VIII</t>
+  </si>
+  <si>
+    <t>Region IX</t>
+  </si>
+  <si>
+    <t>Region X</t>
+  </si>
+  <si>
+    <t>Region XI</t>
+  </si>
+  <si>
+    <t>Region XII</t>
+  </si>
+  <si>
+    <t>Region XIII</t>
+  </si>
+  <si>
+    <t>Autonomous Region in Muslim Mindanao</t>
+  </si>
+  <si>
+    <t>Cordillera Administrative Region</t>
+  </si>
+  <si>
+    <t>National Capital Region</t>
+  </si>
+  <si>
+    <t>ARMM</t>
+  </si>
+  <si>
+    <t>Caraga</t>
+  </si>
+  <si>
+    <t>Soccsksargen</t>
+  </si>
+  <si>
+    <t>Mimaropa</t>
+  </si>
+  <si>
+    <t>Calabarzon</t>
   </si>
 </sst>
 </file>
@@ -832,7 +883,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D1" s="3">
         <v>2018</v>
@@ -873,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -896,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
@@ -919,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -942,7 +993,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
@@ -965,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
@@ -988,10 +1039,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="D7" s="11">
         <v>12406</v>
@@ -1011,10 +1062,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="D8" s="11">
         <v>153</v>
@@ -1034,10 +1085,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="11">
         <v>308</v>
@@ -1057,10 +1108,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="11">
         <v>296</v>
@@ -1080,10 +1131,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="11">
         <v>184</v>
@@ -1103,10 +1154,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="11">
         <v>113</v>
@@ -1126,10 +1177,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="11">
         <v>200</v>
@@ -1149,10 +1200,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="11">
         <v>91</v>
@@ -1172,10 +1223,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="11">
         <v>124</v>
@@ -1195,10 +1246,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="D16" s="11">
         <v>116</v>
@@ -1218,10 +1269,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="D17" s="11">
         <v>107</v>
@@ -1241,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="D18" s="11">
         <v>49</v>
@@ -1338,7 +1389,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7">
         <v>818</v>
@@ -1357,7 +1408,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7">
         <v>1447</v>
@@ -1376,7 +1427,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>77</v>
@@ -1395,7 +1446,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7">
         <v>178</v>
@@ -1414,7 +1465,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7">
         <v>194</v>
@@ -1433,7 +1484,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7">
         <v>168</v>
@@ -1452,7 +1503,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7">
         <v>302</v>
@@ -1471,7 +1522,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>279</v>
@@ -1490,7 +1541,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7">
         <v>191</v>
@@ -1509,7 +1560,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>295</v>
@@ -1528,7 +1579,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7">
         <v>190</v>
@@ -1547,7 +1598,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
         <v>423</v>
@@ -1566,7 +1617,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7">
         <v>20</v>
@@ -1585,7 +1636,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>1437</v>
@@ -1604,7 +1655,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7">
         <v>86</v>
@@ -1623,7 +1674,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7">
         <v>450</v>
@@ -1642,7 +1693,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
         <v>320</v>
@@ -1661,7 +1712,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -1680,7 +1731,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7">
         <v>4</v>
@@ -1699,7 +1750,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7">
         <v>17</v>
@@ -1718,7 +1769,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -1737,7 +1788,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -1756,7 +1807,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>7</v>
@@ -1775,7 +1826,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -1794,7 +1845,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>13</v>
@@ -1813,7 +1864,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C28" s="7">
         <v>14</v>
@@ -1832,7 +1883,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C29" s="7">
         <v>37</v>
@@ -1851,7 +1902,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7">
         <v>271</v>
@@ -1870,7 +1921,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -1889,7 +1940,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>37</v>
@@ -1908,7 +1959,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C33" s="7">
         <v>35</v>
@@ -1927,7 +1978,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C34" s="7">
         <v>4</v>
@@ -1946,7 +1997,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -1965,7 +2016,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C36" s="7">
         <v>1009</v>
@@ -1984,7 +2035,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C37" s="7">
         <v>243</v>
@@ -2003,7 +2054,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C38" s="7">
         <v>534</v>
@@ -2022,7 +2073,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C39" s="7">
         <v>5133</v>
@@ -2041,7 +2092,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C40" s="7">
         <v>2126</v>
@@ -2060,7 +2111,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C41" s="7">
         <v>910</v>
@@ -2079,7 +2130,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C42" s="7">
         <v>2797</v>
@@ -2098,7 +2149,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C43" s="7">
         <v>2253</v>
@@ -2117,7 +2168,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C44" s="7">
         <v>726</v>
@@ -2136,7 +2187,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C45" s="7">
         <v>4030</v>
@@ -2155,7 +2206,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C46" s="7">
         <v>2018</v>
@@ -2174,7 +2225,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C47" s="7">
         <v>2236</v>
@@ -2193,7 +2244,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C48" s="7">
         <v>821</v>
@@ -2212,7 +2263,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C49" s="7">
         <v>2225</v>
@@ -2231,7 +2282,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C50" s="7">
         <v>1076</v>
@@ -2250,7 +2301,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C51" s="7">
         <v>14</v>
@@ -2269,7 +2320,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C52" s="7">
         <v>28</v>
@@ -2288,7 +2339,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C53" s="7">
         <v>43</v>
@@ -2307,7 +2358,7 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C54" s="7">
         <v>31</v>
@@ -2326,7 +2377,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C55" s="7">
         <v>30</v>
@@ -2345,7 +2396,7 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C56" s="7">
         <v>7</v>
@@ -2364,7 +2415,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C57" s="7">
         <v>85</v>
@@ -2383,7 +2434,7 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C58" s="7">
         <v>47</v>
@@ -2402,7 +2453,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C59" s="7">
         <v>93</v>
@@ -2421,7 +2472,7 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C60" s="7">
         <v>10</v>
@@ -2440,7 +2491,7 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C61" s="7">
         <v>35</v>
@@ -2459,7 +2510,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C62" s="7">
         <v>38</v>
@@ -2478,7 +2529,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C63" s="7">
         <v>17</v>
@@ -2497,7 +2548,7 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C64" s="7">
         <v>20</v>
@@ -2516,7 +2567,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C65" s="7">
         <v>50</v>
@@ -2535,7 +2586,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C66" s="7">
         <v>16</v>
@@ -2554,7 +2605,7 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C67" s="7">
         <v>0</v>
@@ -2573,7 +2624,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C68" s="7">
         <v>29</v>
@@ -2592,7 +2643,7 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C69" s="7">
         <v>62</v>
@@ -2611,7 +2662,7 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C70" s="7">
         <v>102</v>
@@ -2630,7 +2681,7 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C71" s="7">
         <v>33</v>
@@ -2649,7 +2700,7 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C72" s="7">
         <v>58</v>
@@ -2668,7 +2719,7 @@
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C73" s="7">
         <v>0</v>
@@ -2687,7 +2738,7 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C74" s="7">
         <v>57</v>
@@ -2706,7 +2757,7 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C75" s="7">
         <v>18</v>
@@ -2725,7 +2776,7 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C76" s="7">
         <v>0</v>
@@ -2744,7 +2795,7 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C77" s="7">
         <v>18</v>
@@ -2763,7 +2814,7 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C78" s="7">
         <v>0</v>
@@ -2782,7 +2833,7 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C79" s="7">
         <v>22</v>
@@ -2801,7 +2852,7 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C80" s="7">
         <v>54</v>
@@ -2820,7 +2871,7 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C81" s="7">
         <v>7</v>
@@ -2839,7 +2890,7 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C82" s="7">
         <v>11</v>
@@ -2858,7 +2909,7 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C83" s="7">
         <v>17</v>
@@ -2877,7 +2928,7 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C84" s="7">
         <v>2</v>
@@ -2896,7 +2947,7 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C85" s="7">
         <v>145</v>
@@ -2915,7 +2966,7 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C86" s="7">
         <v>16</v>
@@ -2934,7 +2985,7 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C87" s="7">
         <v>20</v>
@@ -2953,7 +3004,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C88" s="7">
         <v>17</v>
@@ -2972,7 +3023,7 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C89" s="7">
         <v>2</v>
@@ -2991,7 +3042,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C90" s="7">
         <v>40</v>
@@ -3010,7 +3061,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C91" s="7">
         <v>0</v>
@@ -3029,7 +3080,7 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C92" s="7">
         <v>22</v>
@@ -3048,7 +3099,7 @@
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C93" s="7">
         <v>15</v>
@@ -3067,7 +3118,7 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C94" s="7">
         <v>4</v>
@@ -3086,7 +3137,7 @@
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C95" s="7">
         <v>10</v>
@@ -3105,7 +3156,7 @@
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C96" s="7">
         <v>13</v>
@@ -3122,7 +3173,7 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C97" s="7">
         <v>38</v>
@@ -3141,7 +3192,7 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C98" s="7">
         <v>0</v>
@@ -3160,7 +3211,7 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C99" s="7">
         <v>30</v>
@@ -3179,7 +3230,7 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C100" s="7">
         <v>22</v>
@@ -3198,7 +3249,7 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C101" s="7">
         <v>14</v>
@@ -3217,7 +3268,7 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C102" s="7">
         <v>7</v>
@@ -3236,7 +3287,7 @@
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C103" s="7">
         <v>17</v>
@@ -3255,7 +3306,7 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C104" s="7">
         <v>30</v>
@@ -3274,7 +3325,7 @@
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C105" s="7">
         <v>24</v>
@@ -3293,7 +3344,7 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C106" s="7">
         <v>1</v>
@@ -3312,7 +3363,7 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C107" s="7">
         <v>34</v>
@@ -3331,7 +3382,7 @@
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C108" s="7">
         <v>10</v>
@@ -3350,7 +3401,7 @@
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
@@ -3369,7 +3420,7 @@
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C110" s="7">
         <v>22</v>
@@ -3388,7 +3439,7 @@
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C111" s="7">
         <v>19</v>
@@ -3407,7 +3458,7 @@
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C112" s="7">
         <v>0</v>
@@ -3426,7 +3477,7 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C113" s="7">
         <v>22</v>
@@ -3445,7 +3496,7 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C114" s="7">
         <v>44</v>
@@ -3463,7 +3514,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C115" s="10">
         <v>0</v>
@@ -3480,7 +3531,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C116" s="10">
         <v>28</v>
@@ -3497,7 +3548,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C117" s="10">
         <v>5</v>
@@ -3514,7 +3565,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C118" s="10">
         <v>11</v>
@@ -3531,7 +3582,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C119" s="10">
         <v>5</v>
